--- a/資料/仕様書/Kitchen_Timer_仕様書v0.3.xlsx
+++ b/資料/仕様書/Kitchen_Timer_仕様書v0.3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuminori.hakoishi\Desktop\箱石\技術研修\PICマイコン研修\C編\comp.Kitchen_Timer\資料\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74497F73-AB03-4096-82D4-FA390A1E80E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4142C5A6-0AAF-4BE6-A5A2-DC5AD375FFD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7065" yWindow="5400" windowWidth="14400" windowHeight="15450" activeTab="3" xr2:uid="{75F12DC7-B026-4491-BBFB-B3B7FB378D59}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{75F12DC7-B026-4491-BBFB-B3B7FB378D59}"/>
   </bookViews>
   <sheets>
     <sheet name="仕様" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="170">
   <si>
     <t>カウントダウンのスタート・ストップ</t>
     <phoneticPr fontId="1"/>
@@ -447,13 +447,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スタートストップボタンを押す</t>
-    <rPh sb="12" eb="13">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>カウントダウン中はmとsが点滅する</t>
     <rPh sb="7" eb="8">
       <t>チュウ</t>
@@ -761,16 +754,6 @@
     </rPh>
     <rPh sb="20" eb="22">
       <t>ツウチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※カウント時間が00m00sの場合は</t>
-    <rPh sb="5" eb="7">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>バアイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1551,6 +1534,16 @@
       <t>オ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※カウント時間が</t>
+    <rPh sb="5" eb="7">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>00m00sの場合は</t>
   </si>
 </sst>
 </file>
@@ -1973,19 +1966,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1996,6 +1980,18 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2014,9 +2010,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5180,14 +5173,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>188930</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>168088</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>67236</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>67237</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>145675</xdr:rowOff>
     </xdr:to>
@@ -5204,7 +5197,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5209165" y="3810000"/>
+          <a:off x="5522930" y="3810000"/>
           <a:ext cx="505836" cy="1154204"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
@@ -5242,14 +5235,14 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>280189</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>222989</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>122135</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>223410</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>118325</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>207971</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -5264,7 +5257,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="6416940" y="5101620"/>
+          <a:off x="6416940" y="5706737"/>
           <a:ext cx="847836" cy="1198280"/>
           <a:chOff x="8690722" y="7754949"/>
           <a:chExt cx="918434" cy="1235483"/>
@@ -6281,6 +6274,66 @@
         <a:xfrm>
           <a:off x="8583706" y="795618"/>
           <a:ext cx="937484" cy="589174"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>11884</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>102318</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>273393</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>13060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="矢印: 下 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E02FECA9-6094-4263-9A4F-A4B69F269987}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="14265892">
+          <a:off x="7050871" y="3921831"/>
+          <a:ext cx="616712" cy="2144097"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -8573,7 +8626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{646F19A9-3ADB-45C4-BB57-217CF39D9DEB}">
   <dimension ref="A1:AB79"/>
   <sheetViews>
-    <sheetView topLeftCell="B49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="B58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="K84" sqref="K84"/>
     </sheetView>
   </sheetViews>
@@ -8617,7 +8670,7 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A16" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.4">
@@ -8638,15 +8691,15 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B19" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B20" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C20" t="s">
         <v>44</v>
@@ -8729,7 +8782,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.4">
@@ -8759,7 +8812,7 @@
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.4">
       <c r="D39" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.4">
@@ -8774,7 +8827,7 @@
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.4">
       <c r="D42" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.4">
@@ -8784,7 +8837,7 @@
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.4">
       <c r="D44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.4">
@@ -8799,7 +8852,7 @@
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C48" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.4">
@@ -8809,7 +8862,7 @@
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.4">
       <c r="C50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.4">
@@ -8829,7 +8882,7 @@
     <row r="54" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B54" s="2"/>
       <c r="C54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.4">
@@ -8841,19 +8894,19 @@
     <row r="56" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B56" s="2"/>
       <c r="C56" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B57" s="2"/>
       <c r="C57" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B58" s="2"/>
       <c r="C58" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S58" s="2"/>
     </row>
@@ -8894,25 +8947,25 @@
     <row r="64" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B64" s="2"/>
       <c r="C64" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B65" s="2"/>
       <c r="C65" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B66" s="2"/>
       <c r="C66" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B67" s="2"/>
       <c r="C67" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.4">
@@ -8926,13 +8979,13 @@
     <row r="69" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B69" s="2"/>
       <c r="C69" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B70" s="2"/>
       <c r="D70" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.4">
@@ -8944,13 +8997,13 @@
     <row r="72" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B72" s="2"/>
       <c r="C72" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B73" s="2"/>
       <c r="D73" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.4">
@@ -8964,28 +9017,28 @@
     <row r="75" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B75" s="9"/>
       <c r="C75" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B76" s="9"/>
       <c r="C76" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D77" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D78" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C79" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -9020,41 +9073,41 @@
   <sheetData>
     <row r="1" spans="1:36" ht="45.75" x14ac:dyDescent="0.4">
       <c r="A1" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="39.75" x14ac:dyDescent="0.4">
       <c r="A2" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Q2" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:36" ht="24" x14ac:dyDescent="0.4">
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
     </row>
     <row r="6" spans="1:36" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="AF6" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="AG6" s="43"/>
-      <c r="AH6" s="43"/>
-      <c r="AI6" s="43"/>
-      <c r="AJ6" s="43"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="AF6" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="AG6" s="44"/>
+      <c r="AH6" s="44"/>
+      <c r="AI6" s="44"/>
+      <c r="AJ6" s="44"/>
     </row>
     <row r="7" spans="1:36" ht="24" x14ac:dyDescent="0.4">
-      <c r="E7" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="F7" s="46"/>
-      <c r="I7" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="J7" s="46"/>
+      <c r="E7" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="F7" s="48"/>
+      <c r="I7" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="J7" s="48"/>
       <c r="AF7" s="39"/>
       <c r="AG7" s="39"/>
       <c r="AH7" s="39"/>
@@ -9062,89 +9115,89 @@
       <c r="AJ7" s="39"/>
     </row>
     <row r="8" spans="1:36" ht="24" x14ac:dyDescent="0.4">
-      <c r="E8" s="45" t="s">
-        <v>135</v>
-      </c>
-      <c r="F8" s="45"/>
+      <c r="E8" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" s="50"/>
     </row>
     <row r="9" spans="1:36" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="43"/>
-      <c r="I9" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="J9" s="46"/>
+      <c r="D9" s="44"/>
+      <c r="I9" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="J9" s="48"/>
       <c r="AE9" s="40" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:36" ht="25.5" x14ac:dyDescent="0.4">
       <c r="AE10" s="40" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="E11" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="F11" s="48"/>
+      <c r="I11" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="J11" s="49"/>
+      <c r="AE11" s="40" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="E12" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="F12" s="50"/>
+      <c r="AE12" s="40" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="E11" s="46" t="s">
+    <row r="13" spans="1:36" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="C13" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="44"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="AE13" s="40" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" ht="24" x14ac:dyDescent="0.4">
+      <c r="I14" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="J14" s="47"/>
+    </row>
+    <row r="15" spans="1:36" ht="24" x14ac:dyDescent="0.4">
+      <c r="E15" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="F15" s="48"/>
+      <c r="I15" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="F11" s="46"/>
-      <c r="I11" s="44" t="s">
-        <v>134</v>
-      </c>
-      <c r="J11" s="44"/>
-      <c r="AE11" s="40" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:36" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="E12" s="45" t="s">
-        <v>135</v>
-      </c>
-      <c r="F12" s="45"/>
-      <c r="AE12" s="40" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:36" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="C13" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="43"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="AE13" s="40" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:36" ht="24" x14ac:dyDescent="0.4">
-      <c r="I14" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="J14" s="50"/>
-    </row>
-    <row r="15" spans="1:36" ht="24" x14ac:dyDescent="0.4">
-      <c r="E15" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="F15" s="46"/>
-      <c r="I15" s="45" t="s">
-        <v>135</v>
-      </c>
-      <c r="J15" s="45"/>
+      <c r="J15" s="50"/>
     </row>
     <row r="16" spans="1:36" ht="24" x14ac:dyDescent="0.4">
-      <c r="E16" s="45" t="s">
-        <v>135</v>
-      </c>
-      <c r="F16" s="45"/>
+      <c r="E16" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="F16" s="50"/>
     </row>
     <row r="17" spans="3:4" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C17" s="48" t="s">
+      <c r="C17" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="43"/>
+      <c r="D17" s="44"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -9155,11 +9208,6 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="18">
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I13:J13"/>
     <mergeCell ref="AF6:AJ6"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="I11:J11"/>
@@ -9173,6 +9221,11 @@
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="I6:J6"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I13:J13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9185,8 +9238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA0E333-9386-4B56-8322-B1787B4368DB}">
   <dimension ref="B1:AG39"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AO31" sqref="AO31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AP28" sqref="AP28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9200,15 +9253,15 @@
     <row r="4" spans="2:33" ht="17.45" hidden="1" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="7" spans="2:33" x14ac:dyDescent="0.4">
       <c r="AC7" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="2:33" x14ac:dyDescent="0.4">
       <c r="K10" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Y10" s="41" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="2:33" x14ac:dyDescent="0.4">
@@ -9221,10 +9274,10 @@
     </row>
     <row r="12" spans="2:33" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="K12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="Z12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="2:33" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -9237,10 +9290,10 @@
       <c r="Q13" s="15"/>
       <c r="R13" s="14"/>
       <c r="U13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="Z13" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="2:33" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -9267,12 +9320,12 @@
     </row>
     <row r="15" spans="2:33" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="Z15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="2:33" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="K16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="Z16" s="13"/>
       <c r="AA16" s="14"/>
@@ -9285,7 +9338,7 @@
     </row>
     <row r="17" spans="2:33" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="K17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="Z17" s="16"/>
       <c r="AA17" s="17">
@@ -9310,88 +9363,97 @@
     </row>
     <row r="18" spans="2:33" x14ac:dyDescent="0.4">
       <c r="U18" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="2:33" x14ac:dyDescent="0.4">
       <c r="U19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="2:33" x14ac:dyDescent="0.4">
       <c r="U20" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="2:33" x14ac:dyDescent="0.4">
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="O21" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="22" spans="2:33" x14ac:dyDescent="0.4">
       <c r="J22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O22" t="s">
         <v>50</v>
       </c>
-      <c r="T22" t="s">
-        <v>47</v>
-      </c>
       <c r="AG22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="2:33" x14ac:dyDescent="0.4">
       <c r="J23" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T23" t="s">
-        <v>81</v>
+        <v>50</v>
+      </c>
+      <c r="O23" t="s">
+        <v>168</v>
       </c>
       <c r="AG23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="O24" t="s">
+        <v>169</v>
+      </c>
+      <c r="V24" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG24" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="2:33" x14ac:dyDescent="0.4">
-      <c r="T24" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>79</v>
-      </c>
-    </row>
     <row r="25" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="O25" t="s">
+        <v>80</v>
+      </c>
       <c r="AG25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="2:33" x14ac:dyDescent="0.4">
       <c r="AG26" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="2:33" x14ac:dyDescent="0.4">
       <c r="K27" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Z27" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="2:33" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="K29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="2:33" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="K30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Z30" s="13"/>
       <c r="AA30" s="14"/>
@@ -9411,13 +9473,6 @@
       <c r="P31" s="14"/>
       <c r="Q31" s="15"/>
       <c r="R31" s="14"/>
-      <c r="T31" s="47" t="s">
-        <v>145</v>
-      </c>
-      <c r="U31" s="47"/>
-      <c r="V31" s="47"/>
-      <c r="W31" s="47"/>
-      <c r="X31" s="47"/>
       <c r="Z31" s="16"/>
       <c r="AA31" s="17">
         <v>0</v>
@@ -9460,30 +9515,39 @@
         <v>13</v>
       </c>
       <c r="R32" s="17"/>
-      <c r="T32" s="47" t="s">
+    </row>
+    <row r="33" spans="11:33" x14ac:dyDescent="0.4">
+      <c r="T33" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="U33" s="51"/>
+      <c r="V33" s="51"/>
+      <c r="W33" s="51"/>
+      <c r="X33" s="51"/>
+    </row>
+    <row r="34" spans="11:33" x14ac:dyDescent="0.4">
+      <c r="T34" s="51" t="s">
+        <v>144</v>
+      </c>
+      <c r="U34" s="51"/>
+      <c r="V34" s="51"/>
+      <c r="W34" s="51"/>
+      <c r="X34" s="51"/>
+      <c r="AF34" t="s">
         <v>146</v>
-      </c>
-      <c r="U32" s="47"/>
-      <c r="V32" s="47"/>
-      <c r="W32" s="47"/>
-      <c r="X32" s="47"/>
-    </row>
-    <row r="34" spans="11:33" x14ac:dyDescent="0.4">
-      <c r="AF34" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="35" spans="11:33" x14ac:dyDescent="0.4">
       <c r="Q35" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="11:33" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="K37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Z37" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="11:33" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -9538,12 +9602,13 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="2">
-    <mergeCell ref="T32:X32"/>
-    <mergeCell ref="T31:X31"/>
+    <mergeCell ref="T34:X34"/>
+    <mergeCell ref="T33:X33"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -9551,7 +9616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E28B7ED-3B4A-421D-ABDD-92E214B58BD1}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -9563,12 +9628,12 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="D2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -9576,10 +9641,10 @@
         <v>43997</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
@@ -9587,10 +9652,10 @@
         <v>43997</v>
       </c>
       <c r="C4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -9598,10 +9663,10 @@
         <v>43998</v>
       </c>
       <c r="C5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -9609,10 +9674,10 @@
         <v>43999</v>
       </c>
       <c r="C6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
@@ -9620,20 +9685,20 @@
         <v>44025</v>
       </c>
       <c r="C7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="D8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -9664,7 +9729,7 @@
   <sheetData>
     <row r="1" spans="1:37" ht="39.75" x14ac:dyDescent="0.4">
       <c r="A1" s="19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M1" s="26"/>
     </row>
@@ -9672,46 +9737,46 @@
       <c r="A2" s="19"/>
       <c r="M2" s="26"/>
       <c r="P2" s="38" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="19"/>
       <c r="M3" s="26"/>
       <c r="Q3" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD3" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG3" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="AD3" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="AG3" s="47" t="s">
+      <c r="AH3" s="51"/>
+      <c r="AK3" s="38" t="s">
         <v>118</v>
-      </c>
-      <c r="AH3" s="47"/>
-      <c r="AK3" s="38" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="19"/>
       <c r="M4" s="31"/>
       <c r="R4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AD4" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="AG4" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH4" s="47"/>
+        <v>94</v>
+      </c>
+      <c r="AG4" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH4" s="51"/>
       <c r="AK4" s="38" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="K5" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L5" s="32">
         <v>1</v>
@@ -9721,10 +9786,10 @@
         <v>18</v>
       </c>
       <c r="O5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="W5" s="22" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="X5" s="23"/>
       <c r="Y5" s="23"/>
@@ -9733,98 +9798,98 @@
     </row>
     <row r="6" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="K6" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L6" s="33">
         <v>2</v>
       </c>
-      <c r="M6" s="55" t="s">
-        <v>98</v>
+      <c r="M6" s="56" t="s">
+        <v>96</v>
       </c>
       <c r="N6" s="36">
         <v>17</v>
       </c>
       <c r="O6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="W6" s="25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="X6" s="26"/>
-      <c r="Y6" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z6" s="53"/>
-      <c r="AA6" s="54"/>
+      <c r="Y6" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z6" s="54"/>
+      <c r="AA6" s="55"/>
     </row>
     <row r="7" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="K7" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L7" s="33">
         <v>3</v>
       </c>
-      <c r="M7" s="55"/>
+      <c r="M7" s="56"/>
       <c r="N7" s="36">
         <v>16</v>
       </c>
       <c r="O7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="W7" s="25" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="X7" s="26"/>
-      <c r="Y7" s="53"/>
-      <c r="Z7" s="53"/>
-      <c r="AA7" s="54"/>
+      <c r="Y7" s="54"/>
+      <c r="Z7" s="54"/>
+      <c r="AA7" s="55"/>
     </row>
     <row r="8" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E8" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L8" s="33">
         <v>4</v>
       </c>
-      <c r="M8" s="55"/>
+      <c r="M8" s="56"/>
       <c r="N8" s="36">
         <v>15</v>
       </c>
       <c r="O8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="W8" s="25" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="X8" s="26"/>
-      <c r="Y8" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z8" s="51"/>
-      <c r="AA8" s="52"/>
+      <c r="Y8" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z8" s="52"/>
+      <c r="AA8" s="53"/>
     </row>
     <row r="9" spans="1:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="K9" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L9" s="33">
         <v>5</v>
       </c>
-      <c r="M9" s="55"/>
+      <c r="M9" s="56"/>
       <c r="N9" s="36">
         <v>14</v>
       </c>
       <c r="O9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="W9" s="27" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="X9" s="28"/>
       <c r="Y9" s="28"/>
@@ -9833,83 +9898,83 @@
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.4">
       <c r="E10" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L10" s="33">
         <v>6</v>
       </c>
-      <c r="M10" s="55"/>
+      <c r="M10" s="56"/>
       <c r="N10" s="36">
         <v>13</v>
       </c>
       <c r="O10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.4">
       <c r="K11" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L11" s="33">
         <v>7</v>
       </c>
-      <c r="M11" s="55"/>
+      <c r="M11" s="56"/>
       <c r="N11" s="36">
         <v>12</v>
       </c>
       <c r="O11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.4">
       <c r="K12" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L12" s="33">
         <v>8</v>
       </c>
-      <c r="M12" s="55"/>
+      <c r="M12" s="56"/>
       <c r="N12" s="36">
         <v>11</v>
       </c>
       <c r="O12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E13" s="2"/>
       <c r="K13" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L13" s="34">
         <v>9</v>
       </c>
-      <c r="M13" s="56"/>
+      <c r="M13" s="57"/>
       <c r="N13" s="37">
         <v>10</v>
       </c>
       <c r="O13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B17" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
+      <c r="B17" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="G19" s="47" t="s">
-        <v>103</v>
-      </c>
-      <c r="H19" s="47"/>
+      <c r="G19" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="H19" s="51"/>
       <c r="V19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
